--- a/R Basics IPBA 11/R Data Manipulation/retail_sales_working_examples.xlsx
+++ b/R Basics IPBA 11/R Data Manipulation/retail_sales_working_examples.xlsx
@@ -1,31 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/Documents/Jigsaw Courses/Courses/R Basics/R Basics IPBA 11/R Data Manipulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\R_Basics\R Basics IPBA 11\R Data Manipulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{88003A68-4AC9-41B1-AC7F-6CB6FA98AD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E606950-B528-4DC4-AB8F-7AB0603334B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="retail_sales" sheetId="1" r:id="rId1"/>
-    <sheet name="player" sheetId="2" r:id="rId2"/>
-    <sheet name="dataframe_subset" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="retail_sales" sheetId="1" r:id="rId2"/>
+    <sheet name="player" sheetId="2" r:id="rId3"/>
+    <sheet name="dataframe_subset" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">player!$B$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">player!$B$2:$D$8</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -47,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
   <si>
     <t>Supplier</t>
   </si>
@@ -158,12 +173,18 @@
   </si>
   <si>
     <t>Total_Units</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -695,6 +716,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -751,6 +777,455 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kunaal Naik" refreshedDate="44577.451686458335" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="25" xr:uid="{3D614A7E-FC7D-4243-9E77-37AB3E140C94}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J26" sheet="retail_sales"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Supplier" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Annapolis"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Item_Category" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Art &amp; Architecture"/>
+        <s v="Business Administration"/>
+        <s v="Literature"/>
+        <s v="Sports &amp; Health"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="12">
+        <s v="Feb"/>
+        <s v="Mar"/>
+        <s v="Apr"/>
+        <s v="May"/>
+        <s v="Jun"/>
+        <s v="Aug"/>
+        <s v="Oct"/>
+        <s v="Dec"/>
+        <s v="Jan"/>
+        <s v="Jul"/>
+        <s v="Sep"/>
+        <s v="Nov"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name=" Cost " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1333" maxValue="99754"/>
+    </cacheField>
+    <cacheField name="  Revenue  " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2221" maxValue="142506"/>
+    </cacheField>
+    <cacheField name=" Unit_Price " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="438"/>
+    </cacheField>
+    <cacheField name="Units_Available" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="84" maxValue="1479"/>
+    </cacheField>
+    <cacheField name="Units_Sold" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="46" maxValue="484"/>
+    </cacheField>
+    <cacheField name="Total_Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="46" maxValue="1889"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="38136"/>
+    <n v="47670"/>
+    <n v="105"/>
+    <n v="655"/>
+    <n v="454"/>
+    <n v="1109"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="11919"/>
+    <n v="19866"/>
+    <n v="51"/>
+    <n v="291"/>
+    <n v="388"/>
+    <n v="679"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2879"/>
+    <n v="4112"/>
+    <n v="14"/>
+    <n v="541"/>
+    <n v="298"/>
+    <n v="839"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="99754"/>
+    <n v="142506"/>
+    <n v="305"/>
+    <n v="302"/>
+    <n v="468"/>
+    <n v="770"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1705"/>
+    <n v="2436"/>
+    <n v="21"/>
+    <n v="1063"/>
+    <n v="116"/>
+    <n v="1179"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="2883"/>
+    <n v="4804"/>
+    <n v="16"/>
+    <n v="1211"/>
+    <n v="306"/>
+    <n v="1517"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="39676"/>
+    <n v="66126"/>
+    <n v="155"/>
+    <n v="1165"/>
+    <n v="428"/>
+    <n v="1593"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="1561"/>
+    <n v="2602"/>
+    <n v="57"/>
+    <m/>
+    <n v="46"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="2782"/>
+    <n v="3974"/>
+    <n v="14"/>
+    <n v="84"/>
+    <n v="289"/>
+    <n v="373"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <m/>
+    <n v="19936"/>
+    <n v="51"/>
+    <n v="207"/>
+    <n v="394"/>
+    <n v="601"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1333"/>
+    <n v="2221"/>
+    <n v="16"/>
+    <n v="1140"/>
+    <n v="136"/>
+    <n v="1276"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="87891"/>
+    <m/>
+    <n v="234"/>
+    <n v="1322"/>
+    <n v="469"/>
+    <n v="1791"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="4404"/>
+    <n v="6292"/>
+    <n v="13"/>
+    <n v="1405"/>
+    <n v="484"/>
+    <n v="1889"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="2804"/>
+    <n v="4674"/>
+    <n v="12"/>
+    <n v="729"/>
+    <n v="399"/>
+    <n v="1128"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="1830"/>
+    <n v="3051"/>
+    <n v="15"/>
+    <n v="411"/>
+    <n v="208"/>
+    <n v="619"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="2247"/>
+    <n v="3745"/>
+    <n v="14"/>
+    <n v="1293"/>
+    <n v="274"/>
+    <n v="1567"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="9613"/>
+    <n v="19227"/>
+    <n v="69"/>
+    <n v="280"/>
+    <n v="280"/>
+    <n v="560"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="32247"/>
+    <n v="53744"/>
+    <n v="132"/>
+    <n v="413"/>
+    <n v="406"/>
+    <n v="819"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="7571"/>
+    <n v="12618"/>
+    <n v="38"/>
+    <n v="1479"/>
+    <n v="335"/>
+    <n v="1814"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="4738"/>
+    <n v="7896"/>
+    <n v="18"/>
+    <n v="123"/>
+    <n v="448"/>
+    <n v="571"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="8915"/>
+    <n v="14858"/>
+    <n v="36"/>
+    <n v="830"/>
+    <m/>
+    <n v="830"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4126"/>
+    <n v="5158"/>
+    <n v="15"/>
+    <n v="272"/>
+    <n v="341"/>
+    <n v="613"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3010"/>
+    <n v="3762"/>
+    <n v="13"/>
+    <n v="567"/>
+    <n v="285"/>
+    <n v="852"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="2413"/>
+    <n v="4022"/>
+    <n v="12"/>
+    <n v="920"/>
+    <n v="325"/>
+    <n v="1245"/>
+  </r>
+  <r>
+    <s v="Bantam Books"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="70221"/>
+    <n v="117035"/>
+    <n v="438"/>
+    <n v="1391"/>
+    <n v="267"/>
+    <n v="1658"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA56D72D-D597-401D-9F37-27A3D244DE2C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,11 +1524,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2063FF-8BA4-40B3-9FA5-4D528AB948EC}">
+  <dimension ref="A3:A8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1108,26 +1631,26 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4">
-        <v>38136</v>
+        <v>99754</v>
       </c>
       <c r="F2">
-        <v>47670</v>
+        <v>142506</v>
       </c>
       <c r="G2">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="H2">
-        <v>655</v>
+        <v>302</v>
       </c>
       <c r="I2">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="J2">
         <f>SUM(H2:I2)</f>
-        <v>1109</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1141,26 +1664,23 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4">
-        <v>11919</v>
-      </c>
-      <c r="F3">
-        <v>19866</v>
+        <v>87891</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="H3">
-        <v>291</v>
+        <v>1322</v>
       </c>
       <c r="I3">
-        <v>388</v>
+        <v>469</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J26" si="0">SUM(H3:I3)</f>
-        <v>679</v>
+        <f>SUM(H3:I3)</f>
+        <v>1791</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1171,29 +1691,29 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
-        <v>2879</v>
+        <v>70221</v>
       </c>
       <c r="F4">
-        <v>4112</v>
+        <v>117035</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>438</v>
       </c>
       <c r="H4">
-        <v>541</v>
+        <v>1391</v>
       </c>
       <c r="I4">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>839</v>
+        <f>SUM(H4:I4)</f>
+        <v>1658</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1207,26 +1727,26 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4">
-        <v>99754</v>
+        <v>39676</v>
       </c>
       <c r="F5">
-        <v>142506</v>
+        <v>66126</v>
       </c>
       <c r="G5">
-        <v>305</v>
+        <v>155</v>
       </c>
       <c r="H5">
-        <v>302</v>
+        <v>1165</v>
       </c>
       <c r="I5">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>770</v>
+        <f>SUM(H5:I5)</f>
+        <v>1593</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1240,26 +1760,26 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>1705</v>
+        <v>38136</v>
       </c>
       <c r="F6">
-        <v>2436</v>
+        <v>47670</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H6">
-        <v>1063</v>
+        <v>655</v>
       </c>
       <c r="I6">
-        <v>116</v>
+        <v>454</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1179</v>
+        <f>SUM(H6:I6)</f>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1270,29 +1790,29 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6">
-        <v>2883</v>
+        <v>32247</v>
       </c>
       <c r="F7">
-        <v>4804</v>
+        <v>53744</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="H7">
-        <v>1211</v>
+        <v>413</v>
       </c>
       <c r="I7">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1517</v>
+        <f>SUM(H7:I7)</f>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1305,27 +1825,27 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>39676</v>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10">
+        <v>11919</v>
       </c>
       <c r="F8">
-        <v>66126</v>
+        <v>19866</v>
       </c>
       <c r="G8">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>1165</v>
+        <v>291</v>
       </c>
       <c r="I8">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1593</v>
+        <f>SUM(H8:I8)</f>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1336,26 +1856,29 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>1561</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10">
+        <v>9613</v>
       </c>
       <c r="F9">
-        <v>2602</v>
+        <v>19227</v>
       </c>
       <c r="G9">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="H9">
+        <v>280</v>
       </c>
       <c r="I9">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f>SUM(H9:I9)</f>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1366,29 +1889,26 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
-        <v>2782</v>
+      <c r="E10" s="10">
+        <v>8915</v>
       </c>
       <c r="F10">
-        <v>3974</v>
+        <v>14858</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>84</v>
-      </c>
-      <c r="I10">
-        <v>289</v>
+        <v>830</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>373</v>
+        <f>SUM(H10:I10)</f>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1399,26 +1919,29 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>7571</v>
       </c>
       <c r="F11">
-        <v>19936</v>
+        <v>12618</v>
       </c>
       <c r="G11">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>207</v>
+        <v>1479</v>
       </c>
       <c r="I11">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>601</v>
+        <f>SUM(H11:I11)</f>
+        <v>1814</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1429,29 +1952,29 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>1333</v>
+        <v>4738</v>
       </c>
       <c r="F12">
-        <v>2221</v>
+        <v>7896</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>1140</v>
+        <v>123</v>
       </c>
       <c r="I12">
-        <v>136</v>
+        <v>448</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
-        <v>1276</v>
+        <f>SUM(H12:I12)</f>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1464,24 +1987,27 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>87891</v>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4404</v>
+      </c>
+      <c r="F13">
+        <v>6292</v>
       </c>
       <c r="G13">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>1322</v>
+        <v>1405</v>
       </c>
       <c r="I13">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>1791</v>
+        <f>SUM(H13:I13)</f>
+        <v>1889</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1492,29 +2018,29 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>4404</v>
+        <v>4126</v>
       </c>
       <c r="F14">
-        <v>6292</v>
+        <v>5158</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>1405</v>
+        <v>272</v>
       </c>
       <c r="I14">
-        <v>484</v>
+        <v>341</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>1889</v>
+        <f>SUM(H14:I14)</f>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1525,29 +2051,29 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>2804</v>
+        <v>24</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3010</v>
       </c>
       <c r="F15">
-        <v>4674</v>
+        <v>3762</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>729</v>
+        <v>567</v>
       </c>
       <c r="I15">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>1128</v>
+        <f>SUM(H15:I15)</f>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1558,29 +2084,29 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
-        <v>1830</v>
+      <c r="E16" s="10">
+        <v>2883</v>
       </c>
       <c r="F16">
-        <v>3051</v>
+        <v>4804</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16">
-        <v>411</v>
+        <v>1211</v>
       </c>
       <c r="I16">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
-        <v>619</v>
+        <f>SUM(H16:I16)</f>
+        <v>1517</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1591,29 +2117,29 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2247</v>
+        <v>11</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2879</v>
       </c>
       <c r="F17">
-        <v>3745</v>
+        <v>4112</v>
       </c>
       <c r="G17">
         <v>14</v>
       </c>
       <c r="H17">
-        <v>1293</v>
+        <v>541</v>
       </c>
       <c r="I17">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
-        <v>1567</v>
+        <f>SUM(H17:I17)</f>
+        <v>839</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1624,29 +2150,29 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>9613</v>
+        <v>11</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2804</v>
       </c>
       <c r="F18">
-        <v>19227</v>
+        <v>4674</v>
       </c>
       <c r="G18">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="H18">
-        <v>280</v>
+        <v>729</v>
       </c>
       <c r="I18">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
-        <v>560</v>
+        <f>SUM(H18:I18)</f>
+        <v>1128</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1657,29 +2183,29 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>32247</v>
+        <v>11</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2782</v>
       </c>
       <c r="F19">
-        <v>53744</v>
+        <v>3974</v>
       </c>
       <c r="G19">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="H19">
-        <v>413</v>
+        <v>84</v>
       </c>
       <c r="I19">
-        <v>406</v>
+        <v>289</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
-        <v>819</v>
+        <f>SUM(H19:I19)</f>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1690,29 +2216,29 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>7571</v>
+        <v>26</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2413</v>
       </c>
       <c r="F20">
-        <v>12618</v>
+        <v>4022</v>
       </c>
       <c r="G20">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>1479</v>
+        <v>920</v>
       </c>
       <c r="I20">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
-        <v>1814</v>
+        <f>SUM(H20:I20)</f>
+        <v>1245</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1723,29 +2249,29 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>4738</v>
+        <v>2247</v>
       </c>
       <c r="F21">
-        <v>7896</v>
+        <v>3745</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>123</v>
+        <v>1293</v>
       </c>
       <c r="I21">
-        <v>448</v>
+        <v>274</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
-        <v>571</v>
+        <f>SUM(H21:I21)</f>
+        <v>1567</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1756,26 +2282,29 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>8915</v>
+        <v>22</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1830</v>
       </c>
       <c r="F22">
-        <v>14858</v>
+        <v>3051</v>
       </c>
       <c r="G22">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>830</v>
+        <v>411</v>
+      </c>
+      <c r="I22">
+        <v>208</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
-        <v>830</v>
+        <f>SUM(H22:I22)</f>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1786,29 +2315,29 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <v>4126</v>
+        <v>11</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1705</v>
       </c>
       <c r="F23">
-        <v>5158</v>
+        <v>2436</v>
       </c>
       <c r="G23">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>272</v>
+        <v>1063</v>
       </c>
       <c r="I23">
-        <v>341</v>
+        <v>116</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
-        <v>613</v>
+        <f>SUM(H23:I23)</f>
+        <v>1179</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1819,29 +2348,26 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>3010</v>
+        <v>11</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1561</v>
       </c>
       <c r="F24">
-        <v>3762</v>
+        <v>2602</v>
       </c>
       <c r="G24">
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <v>567</v>
+        <v>57</v>
       </c>
       <c r="I24">
-        <v>285</v>
+        <v>46</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
-        <v>852</v>
+        <f>SUM(H24:I24)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1852,29 +2378,29 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>2413</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1333</v>
       </c>
       <c r="F25">
-        <v>4022</v>
+        <v>2221</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H25">
-        <v>920</v>
+        <v>1140</v>
       </c>
       <c r="I25">
-        <v>325</v>
+        <v>136</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
-        <v>1245</v>
+        <f>SUM(H25:I25)</f>
+        <v>1276</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1885,38 +2411,42 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>70221</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>117035</v>
+        <v>19936</v>
       </c>
       <c r="G26">
-        <v>438</v>
+        <v>51</v>
       </c>
       <c r="H26">
-        <v>1391</v>
+        <v>207</v>
       </c>
       <c r="I26">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
-        <v>1658</v>
-      </c>
+        <f>SUM(H26:I26)</f>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J26">
+    <sortCondition descending="1" ref="E2:E26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
@@ -2064,11 +2594,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>

--- a/R Basics IPBA 11/R Data Manipulation/retail_sales_working_examples.xlsx
+++ b/R Basics IPBA 11/R Data Manipulation/retail_sales_working_examples.xlsx
@@ -8,22 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\R_Basics\R Basics IPBA 11\R Data Manipulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E606950-B528-4DC4-AB8F-7AB0603334B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77120E2-66EF-4DA3-8DA1-3E83EA9D6914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="retail_sales" sheetId="1" r:id="rId2"/>
-    <sheet name="player" sheetId="2" r:id="rId3"/>
-    <sheet name="dataframe_subset" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId2"/>
+    <sheet name="retail_sales" sheetId="1" r:id="rId3"/>
+    <sheet name="retail_new" sheetId="6" r:id="rId4"/>
+    <sheet name="sort_cost" sheetId="5" r:id="rId5"/>
+    <sheet name="player" sheetId="2" r:id="rId6"/>
+    <sheet name="dataframe_subset" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">player!$B$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">player!$B$2:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">retail_new!$A$1:$K$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">retail_sales!$A$2:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">sort_cost!$A$1:$K$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="42">
   <si>
     <t>Supplier</t>
   </si>
@@ -179,6 +186,15 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Missing_Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of   Revenue  </t>
   </si>
 </sst>
 </file>
@@ -707,7 +723,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -721,6 +737,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -766,7 +784,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -782,7 +804,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kunaal Naik" refreshedDate="44577.451686458335" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="25" xr:uid="{3D614A7E-FC7D-4243-9E77-37AB3E140C94}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J26" sheet="retail_sales"/>
+    <worksheetSource ref="B2:K27" sheet="retail_sales"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Supplier" numFmtId="0">
@@ -834,6 +856,62 @@
     </cacheField>
     <cacheField name="Total_Units" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="46" maxValue="1889"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kunaal Naik" refreshedDate="44577.545240509258" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="25" xr:uid="{5296FDCA-57A8-479B-B833-D4C08A0B5C11}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table3"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="index" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="25"/>
+    </cacheField>
+    <cacheField name="Supplier" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Item_Category" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Art &amp; Architecture"/>
+        <s v="Business Administration"/>
+        <s v="Literature"/>
+        <s v="Sports &amp; Health"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name=" Cost " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1333" maxValue="99754"/>
+    </cacheField>
+    <cacheField name="  Revenue  " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2221" maxValue="142506"/>
+    </cacheField>
+    <cacheField name=" Unit_Price " numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="438"/>
+    </cacheField>
+    <cacheField name="Units_Available" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="84" maxValue="1479"/>
+    </cacheField>
+    <cacheField name="Units_Sold" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="46" maxValue="484"/>
+    </cacheField>
+    <cacheField name="Total_Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="46" maxValue="1889"/>
+    </cacheField>
+    <cacheField name="Missing_Cost" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1149,8 +1227,363 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <n v="1"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="May"/>
+    <n v="99754"/>
+    <n v="142506"/>
+    <n v="305"/>
+    <n v="302"/>
+    <n v="468"/>
+    <n v="770"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Jul"/>
+    <n v="87891"/>
+    <m/>
+    <n v="234"/>
+    <n v="1322"/>
+    <n v="469"/>
+    <n v="1791"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Oct"/>
+    <n v="39676"/>
+    <n v="66126"/>
+    <n v="155"/>
+    <n v="1165"/>
+    <n v="428"/>
+    <n v="1593"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Feb"/>
+    <m/>
+    <n v="47670"/>
+    <n v="105"/>
+    <n v="655"/>
+    <n v="454"/>
+    <n v="1109"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Mar"/>
+    <n v="11919"/>
+    <n v="19866"/>
+    <n v="51"/>
+    <n v="291"/>
+    <n v="388"/>
+    <n v="679"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Oct"/>
+    <m/>
+    <n v="6292"/>
+    <n v="13"/>
+    <n v="1405"/>
+    <n v="484"/>
+    <n v="1889"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Aug"/>
+    <n v="2883"/>
+    <n v="4804"/>
+    <n v="16"/>
+    <n v="1211"/>
+    <n v="306"/>
+    <n v="1517"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Apr"/>
+    <n v="2879"/>
+    <n v="4112"/>
+    <n v="14"/>
+    <n v="541"/>
+    <n v="298"/>
+    <n v="839"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Dec"/>
+    <m/>
+    <n v="4674"/>
+    <n v="12"/>
+    <n v="729"/>
+    <n v="399"/>
+    <n v="1128"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Jan"/>
+    <n v="2782"/>
+    <n v="3974"/>
+    <n v="14"/>
+    <n v="84"/>
+    <n v="289"/>
+    <n v="373"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Jun"/>
+    <n v="1705"/>
+    <n v="2436"/>
+    <n v="21"/>
+    <n v="1063"/>
+    <n v="116"/>
+    <n v="1179"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Dec"/>
+    <n v="1561"/>
+    <n v="2602"/>
+    <n v="57"/>
+    <m/>
+    <n v="46"/>
+    <n v="46"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="Jun"/>
+    <n v="1333"/>
+    <n v="2221"/>
+    <n v="16"/>
+    <n v="1140"/>
+    <n v="136"/>
+    <n v="1276"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="0"/>
+    <s v="May"/>
+    <m/>
+    <n v="19936"/>
+    <n v="51"/>
+    <n v="207"/>
+    <n v="394"/>
+    <n v="601"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="1"/>
+    <s v="Oct"/>
+    <n v="9613"/>
+    <n v="19227"/>
+    <n v="69"/>
+    <n v="280"/>
+    <n v="280"/>
+    <n v="560"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="1"/>
+    <s v="Sep"/>
+    <n v="2247"/>
+    <n v="3745"/>
+    <n v="14"/>
+    <n v="1293"/>
+    <n v="274"/>
+    <n v="1567"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="1"/>
+    <s v="Aug"/>
+    <n v="1830"/>
+    <n v="3051"/>
+    <n v="15"/>
+    <n v="411"/>
+    <n v="208"/>
+    <n v="619"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="2"/>
+    <s v="Jun"/>
+    <n v="32247"/>
+    <n v="53744"/>
+    <n v="132"/>
+    <n v="413"/>
+    <n v="406"/>
+    <n v="819"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="2"/>
+    <s v="Jan"/>
+    <n v="8915"/>
+    <n v="14858"/>
+    <n v="36"/>
+    <n v="830"/>
+    <m/>
+    <n v="830"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="2"/>
+    <s v="Oct"/>
+    <m/>
+    <n v="12618"/>
+    <n v="38"/>
+    <n v="1479"/>
+    <n v="335"/>
+    <n v="1814"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="2"/>
+    <s v="Nov"/>
+    <n v="4738"/>
+    <n v="7896"/>
+    <n v="18"/>
+    <n v="123"/>
+    <n v="448"/>
+    <n v="571"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="2"/>
+    <s v="Feb"/>
+    <n v="4126"/>
+    <n v="5158"/>
+    <n v="15"/>
+    <n v="272"/>
+    <n v="341"/>
+    <n v="613"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="2"/>
+    <s v="May"/>
+    <n v="3010"/>
+    <n v="3762"/>
+    <n v="13"/>
+    <n v="567"/>
+    <n v="285"/>
+    <n v="852"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="3"/>
+    <s v="Feb"/>
+    <n v="70221"/>
+    <n v="117035"/>
+    <n v="438"/>
+    <n v="1391"/>
+    <n v="267"/>
+    <n v="1658"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Bantam Books"/>
+    <s v="Annapolis"/>
+    <x v="3"/>
+    <s v="Jan"/>
+    <n v="2413"/>
+    <n v="4022"/>
+    <n v="12"/>
+    <n v="920"/>
+    <n v="325"/>
+    <n v="1245"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA56D72D-D597-401D-9F37-27A3D244DE2C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA56D72D-D597-401D-9F37-27A3D244DE2C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -1226,6 +1659,103 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB8BBB91-8EFE-4726-BAF4-383C5314933F}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of   Revenue  " fld="6" baseField="3" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DFCD33F3-9E12-405E-A7D3-99576C6DD4C4}" name="Table3" displayName="Table3" ref="A2:L27" totalsRowShown="0">
+  <autoFilter ref="A2:L27" xr:uid="{DFCD33F3-9E12-405E-A7D3-99576C6DD4C4}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{DFDC5D6F-4BDE-4A75-AA6C-92BB70F00D8B}" name="index"/>
+    <tableColumn id="2" xr3:uid="{FECCBFB7-9AE8-4C66-8FDF-D03BF01101F3}" name="Supplier"/>
+    <tableColumn id="3" xr3:uid="{82B69676-9871-488C-8F5E-41A6019885B1}" name="City"/>
+    <tableColumn id="4" xr3:uid="{42F10FDC-F8EE-414E-BB46-41881BEB5A8F}" name="Item_Category"/>
+    <tableColumn id="5" xr3:uid="{BABFD459-A1CC-4491-960F-3B920601757B}" name="Month"/>
+    <tableColumn id="6" xr3:uid="{5954BDCE-F52C-4E7D-B75C-B72286E4F9DB}" name=" Cost "/>
+    <tableColumn id="7" xr3:uid="{73DE2857-0038-4FF6-97B7-E07474F8AC4A}" name="  Revenue  "/>
+    <tableColumn id="8" xr3:uid="{11145848-7354-4E11-A761-35E6BAA59B8D}" name=" Unit_Price "/>
+    <tableColumn id="9" xr3:uid="{381FDD54-CAB9-4764-8AAC-B84EDA08FAEC}" name="Units_Available"/>
+    <tableColumn id="10" xr3:uid="{3D219680-7CBC-4488-975D-0794F59CE15E}" name="Units_Sold"/>
+    <tableColumn id="11" xr3:uid="{9D3E01EA-4B0E-459D-A20A-8C8341191845}" name="Total_Units">
+      <calculatedColumnFormula>SUM(I3:J3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{240D6DE3-C75F-4C15-A904-3C1409FD462D}" name="Missing_Cost" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table3[[#This Row],[ Cost ]]="",1,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1572,880 +2102,3301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD2633-CBB3-4777-A329-9186575410BD}">
+  <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12">
+        <v>327219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12">
+        <v>121057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="12">
+        <v>98036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12">
+        <v>26023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12">
+        <v>572335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F6" sqref="D6:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <f>COUNTBLANK(A3:A27)</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>COUNTBLANK(B3:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>COUNTBLANK(C3:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>COUNTBLANK(D3:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>COUNTBLANK(E3:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>COUNTBLANK(F3:F27)</f>
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <f>COUNTBLANK(G3:G27)</f>
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <f>COUNTBLANK(H3:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>COUNTBLANK(I3:I27)</f>
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <f>COUNTBLANK(J3:J27)</f>
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <f>COUNTBLANK(K3:K27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>99754</v>
+      </c>
+      <c r="G3">
+        <v>142506</v>
+      </c>
+      <c r="H3">
+        <v>305</v>
+      </c>
+      <c r="I3">
+        <v>302</v>
+      </c>
+      <c r="J3">
+        <v>468</v>
+      </c>
+      <c r="K3">
+        <f>SUM(I3:J3)</f>
+        <v>770</v>
+      </c>
+      <c r="L3">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4">
+        <v>87891</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4">
+        <v>234</v>
+      </c>
+      <c r="I4">
+        <v>1322</v>
+      </c>
+      <c r="J4">
+        <v>469</v>
+      </c>
+      <c r="K4">
+        <f>SUM(I4:J4)</f>
+        <v>1791</v>
+      </c>
+      <c r="L4">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
+        <v>39676</v>
+      </c>
+      <c r="G5">
+        <v>66126</v>
+      </c>
+      <c r="H5">
+        <v>155</v>
+      </c>
+      <c r="I5">
+        <v>1165</v>
+      </c>
+      <c r="J5">
+        <v>428</v>
+      </c>
+      <c r="K5">
+        <f>SUM(I5:J5)</f>
+        <v>1593</v>
+      </c>
+      <c r="L5">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6">
+        <v>47670</v>
+      </c>
+      <c r="H6">
+        <v>105</v>
+      </c>
+      <c r="I6">
+        <v>655</v>
+      </c>
+      <c r="J6">
+        <v>454</v>
+      </c>
+      <c r="K6">
+        <f>SUM(I6:J6)</f>
+        <v>1109</v>
+      </c>
+      <c r="L6">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4">
+        <v>11919</v>
+      </c>
+      <c r="G7">
+        <v>19866</v>
+      </c>
+      <c r="H7">
+        <v>51</v>
+      </c>
+      <c r="I7">
+        <v>291</v>
+      </c>
+      <c r="J7">
+        <v>388</v>
+      </c>
+      <c r="K7">
+        <f>SUM(I7:J7)</f>
+        <v>679</v>
+      </c>
+      <c r="L7">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8">
+        <v>6292</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>1405</v>
+      </c>
+      <c r="J8">
+        <v>484</v>
+      </c>
+      <c r="K8">
+        <f>SUM(I8:J8)</f>
+        <v>1889</v>
+      </c>
+      <c r="L8">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2883</v>
+      </c>
+      <c r="G9">
+        <v>4804</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>1211</v>
+      </c>
+      <c r="J9">
+        <v>306</v>
+      </c>
+      <c r="K9">
+        <f>SUM(I9:J9)</f>
+        <v>1517</v>
+      </c>
+      <c r="L9">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2879</v>
+      </c>
+      <c r="G10">
+        <v>4112</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>541</v>
+      </c>
+      <c r="J10">
+        <v>298</v>
+      </c>
+      <c r="K10">
+        <f>SUM(I10:J10)</f>
+        <v>839</v>
+      </c>
+      <c r="L10">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11">
+        <v>4674</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>729</v>
+      </c>
+      <c r="J11">
+        <v>399</v>
+      </c>
+      <c r="K11">
+        <f>SUM(I11:J11)</f>
+        <v>1128</v>
+      </c>
+      <c r="L11">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2782</v>
+      </c>
+      <c r="G12">
+        <v>3974</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>84</v>
+      </c>
+      <c r="J12">
+        <v>289</v>
+      </c>
+      <c r="K12">
+        <f>SUM(I12:J12)</f>
+        <v>373</v>
+      </c>
+      <c r="L12">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1705</v>
+      </c>
+      <c r="G13">
+        <v>2436</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>1063</v>
+      </c>
+      <c r="J13">
+        <v>116</v>
+      </c>
+      <c r="K13">
+        <f>SUM(I13:J13)</f>
+        <v>1179</v>
+      </c>
+      <c r="L13">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1561</v>
+      </c>
+      <c r="G14">
+        <v>2602</v>
+      </c>
+      <c r="H14">
+        <v>57</v>
+      </c>
+      <c r="J14">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <f>SUM(I14:J14)</f>
+        <v>46</v>
+      </c>
+      <c r="L14">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1333</v>
+      </c>
+      <c r="G15">
+        <v>2221</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>1140</v>
+      </c>
+      <c r="J15">
+        <v>136</v>
+      </c>
+      <c r="K15">
+        <f>SUM(I15:J15)</f>
+        <v>1276</v>
+      </c>
+      <c r="L15">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>19936</v>
+      </c>
+      <c r="H16">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>207</v>
+      </c>
+      <c r="J16">
+        <v>394</v>
+      </c>
+      <c r="K16">
+        <f>SUM(I16:J16)</f>
+        <v>601</v>
+      </c>
+      <c r="L16">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="10">
+        <v>9613</v>
+      </c>
+      <c r="G17">
+        <v>19227</v>
+      </c>
+      <c r="H17">
+        <v>69</v>
+      </c>
+      <c r="I17">
+        <v>280</v>
+      </c>
+      <c r="J17">
+        <v>280</v>
+      </c>
+      <c r="K17">
+        <f>SUM(I17:J17)</f>
+        <v>560</v>
+      </c>
+      <c r="L17">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>2247</v>
+      </c>
+      <c r="G18">
+        <v>3745</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>1293</v>
+      </c>
+      <c r="J18">
+        <v>274</v>
+      </c>
+      <c r="K18">
+        <f>SUM(I18:J18)</f>
+        <v>1567</v>
+      </c>
+      <c r="L18">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1830</v>
+      </c>
+      <c r="G19">
+        <v>3051</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>411</v>
+      </c>
+      <c r="J19">
+        <v>208</v>
+      </c>
+      <c r="K19">
+        <f>SUM(I19:J19)</f>
+        <v>619</v>
+      </c>
+      <c r="L19">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="10">
+        <v>32247</v>
+      </c>
+      <c r="G20">
+        <v>53744</v>
+      </c>
+      <c r="H20">
+        <v>132</v>
+      </c>
+      <c r="I20">
+        <v>413</v>
+      </c>
+      <c r="J20">
+        <v>406</v>
+      </c>
+      <c r="K20">
+        <f>SUM(I20:J20)</f>
+        <v>819</v>
+      </c>
+      <c r="L20">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="10">
+        <v>8915</v>
+      </c>
+      <c r="G21">
+        <v>14858</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <v>830</v>
+      </c>
+      <c r="K21">
+        <f>SUM(I21:J21)</f>
+        <v>830</v>
+      </c>
+      <c r="L21">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22">
+        <v>12618</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>1479</v>
+      </c>
+      <c r="J22">
+        <v>335</v>
+      </c>
+      <c r="K22">
+        <f>SUM(I22:J22)</f>
+        <v>1814</v>
+      </c>
+      <c r="L22">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="10">
+        <v>4738</v>
+      </c>
+      <c r="G23">
+        <v>7896</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>123</v>
+      </c>
+      <c r="J23">
+        <v>448</v>
+      </c>
+      <c r="K23">
+        <f>SUM(I23:J23)</f>
+        <v>571</v>
+      </c>
+      <c r="L23">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4126</v>
+      </c>
+      <c r="G24">
+        <v>5158</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>272</v>
+      </c>
+      <c r="J24">
+        <v>341</v>
+      </c>
+      <c r="K24">
+        <f>SUM(I24:J24)</f>
+        <v>613</v>
+      </c>
+      <c r="L24">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="10">
+        <v>3010</v>
+      </c>
+      <c r="G25">
+        <v>3762</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>567</v>
+      </c>
+      <c r="J25">
+        <v>285</v>
+      </c>
+      <c r="K25">
+        <f>SUM(I25:J25)</f>
+        <v>852</v>
+      </c>
+      <c r="L25">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="10">
+        <v>70221</v>
+      </c>
+      <c r="G26">
+        <v>117035</v>
+      </c>
+      <c r="H26">
+        <v>438</v>
+      </c>
+      <c r="I26">
+        <v>1391</v>
+      </c>
+      <c r="J26">
+        <v>267</v>
+      </c>
+      <c r="K26">
+        <f>SUM(I26:J26)</f>
+        <v>1658</v>
+      </c>
+      <c r="L26">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2413</v>
+      </c>
+      <c r="G27">
+        <v>4022</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>920</v>
+      </c>
+      <c r="J27">
+        <v>325</v>
+      </c>
+      <c r="K27">
+        <f>SUM(I27:J27)</f>
+        <v>1245</v>
+      </c>
+      <c r="L27">
+        <f>IF(Table3[[#This Row],[ Cost ]]="",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K27">
+    <sortCondition ref="A3:A27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4465AD3-C666-4ACD-9831-4BE10F178CE5}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>74</v>
+      </c>
+      <c r="G2">
+        <v>117035</v>
+      </c>
+      <c r="H2">
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>1391</v>
+      </c>
+      <c r="J2">
+        <v>267</v>
+      </c>
+      <c r="K2">
+        <f>SUM(I2:J2)</f>
+        <v>1658</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
-        <v>99754</v>
-      </c>
-      <c r="F2">
+      <c r="F3">
+        <v>74</v>
+      </c>
+      <c r="G3">
         <v>142506</v>
       </c>
-      <c r="G2">
-        <v>305</v>
-      </c>
-      <c r="H2">
+      <c r="H3">
+        <v>74</v>
+      </c>
+      <c r="I3">
         <v>302</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>468</v>
       </c>
-      <c r="J2">
-        <f>SUM(H2:I2)</f>
+      <c r="K3">
+        <f>SUM(I3:J3)</f>
         <v>770</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4">
-        <v>87891</v>
-      </c>
-      <c r="G3">
-        <v>234</v>
-      </c>
-      <c r="H3">
+      <c r="F4">
+        <v>74</v>
+      </c>
+      <c r="H4">
+        <v>74</v>
+      </c>
+      <c r="I4">
         <v>1322</v>
       </c>
-      <c r="I3">
+      <c r="J4">
         <v>469</v>
       </c>
-      <c r="J3">
-        <f>SUM(H3:I3)</f>
+      <c r="K4">
+        <f>SUM(I4:J4)</f>
         <v>1791</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>74</v>
+      </c>
+      <c r="G5">
+        <v>66126</v>
+      </c>
+      <c r="H5">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>1165</v>
+      </c>
+      <c r="J5">
+        <v>428</v>
+      </c>
+      <c r="K5">
+        <f>SUM(I5:J5)</f>
+        <v>1593</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>53744</v>
+      </c>
+      <c r="H6">
+        <v>74</v>
+      </c>
+      <c r="I6">
+        <v>413</v>
+      </c>
+      <c r="J6">
+        <v>406</v>
+      </c>
+      <c r="K6">
+        <f>SUM(I6:J6)</f>
+        <v>819</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>74</v>
+      </c>
+      <c r="G7">
+        <v>47670</v>
+      </c>
+      <c r="H7">
+        <v>74</v>
+      </c>
+      <c r="I7">
+        <v>655</v>
+      </c>
+      <c r="J7">
+        <v>454</v>
+      </c>
+      <c r="K7">
+        <f>SUM(I7:J7)</f>
+        <v>1109</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9613</v>
+      </c>
+      <c r="G8">
+        <v>19227</v>
+      </c>
+      <c r="H8">
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>280</v>
+      </c>
+      <c r="J8">
+        <v>280</v>
+      </c>
+      <c r="K8">
+        <f>SUM(I8:J8)</f>
+        <v>560</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="10">
+        <v>9613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1561</v>
+      </c>
+      <c r="G9">
+        <v>2602</v>
+      </c>
+      <c r="H9">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <f>SUM(I9:J9)</f>
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="10">
+        <v>11919</v>
+      </c>
+      <c r="G10">
+        <v>19866</v>
+      </c>
+      <c r="H10">
+        <v>51</v>
+      </c>
+      <c r="I10">
+        <v>291</v>
+      </c>
+      <c r="J10">
+        <v>388</v>
+      </c>
+      <c r="K10">
+        <f>SUM(I10:J10)</f>
+        <v>679</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="10">
+        <v>11919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>19936</v>
+      </c>
+      <c r="H11">
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>207</v>
+      </c>
+      <c r="J11">
+        <v>394</v>
+      </c>
+      <c r="K11">
+        <f>SUM(I11:J11)</f>
+        <v>601</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10">
+        <v>7571</v>
+      </c>
+      <c r="G12">
+        <v>12618</v>
+      </c>
+      <c r="H12">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>1479</v>
+      </c>
+      <c r="J12">
+        <v>335</v>
+      </c>
+      <c r="K12">
+        <f>SUM(I12:J12)</f>
+        <v>1814</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="10">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10">
+        <v>8915</v>
+      </c>
+      <c r="G13">
+        <v>14858</v>
+      </c>
+      <c r="H13">
+        <v>36</v>
+      </c>
+      <c r="I13">
+        <v>830</v>
+      </c>
+      <c r="K13">
+        <f>SUM(I13:J13)</f>
+        <v>830</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="10">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1705</v>
+      </c>
+      <c r="G14">
+        <v>2436</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>1063</v>
+      </c>
+      <c r="J14">
+        <v>116</v>
+      </c>
+      <c r="K14">
+        <f>SUM(I14:J14)</f>
+        <v>1179</v>
+      </c>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="10">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4738</v>
+      </c>
+      <c r="G15">
+        <v>7896</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>123</v>
+      </c>
+      <c r="J15">
+        <v>448</v>
+      </c>
+      <c r="K15">
+        <f>SUM(I15:J15)</f>
+        <v>571</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="10">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2883</v>
+      </c>
+      <c r="G16">
+        <v>4804</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>1211</v>
+      </c>
+      <c r="J16">
+        <v>306</v>
+      </c>
+      <c r="K16">
+        <f>SUM(I16:J16)</f>
+        <v>1517</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="10">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1333</v>
+      </c>
+      <c r="G17">
+        <v>2221</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>1140</v>
+      </c>
+      <c r="J17">
+        <v>136</v>
+      </c>
+      <c r="K17">
+        <f>SUM(I17:J17)</f>
+        <v>1276</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1830</v>
+      </c>
+      <c r="G18">
+        <v>3051</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>411</v>
+      </c>
+      <c r="J18">
+        <v>208</v>
+      </c>
+      <c r="K18">
+        <f>SUM(I18:J18)</f>
+        <v>619</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="10">
+        <v>4126</v>
+      </c>
+      <c r="G19">
+        <v>5158</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>272</v>
+      </c>
+      <c r="J19">
+        <v>341</v>
+      </c>
+      <c r="K19">
+        <f>SUM(I19:J19)</f>
+        <v>613</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="10">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2879</v>
+      </c>
+      <c r="G20">
+        <v>4112</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>541</v>
+      </c>
+      <c r="J20">
+        <v>298</v>
+      </c>
+      <c r="K20">
+        <f>SUM(I20:J20)</f>
+        <v>839</v>
+      </c>
+      <c r="N20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="10">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2782</v>
+      </c>
+      <c r="G21">
+        <v>3974</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>84</v>
+      </c>
+      <c r="J21">
+        <v>289</v>
+      </c>
+      <c r="K21">
+        <f>SUM(I21:J21)</f>
+        <v>373</v>
+      </c>
+      <c r="N21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="10">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>2247</v>
+      </c>
+      <c r="G22">
+        <v>3745</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>1293</v>
+      </c>
+      <c r="J22">
+        <v>274</v>
+      </c>
+      <c r="K22">
+        <f>SUM(I22:J22)</f>
+        <v>1567</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="10">
+        <v>4404</v>
+      </c>
+      <c r="G23">
+        <v>6292</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>1405</v>
+      </c>
+      <c r="J23">
+        <v>484</v>
+      </c>
+      <c r="K23">
+        <f>SUM(I23:J23)</f>
+        <v>1889</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="10">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3010</v>
+      </c>
+      <c r="G24">
+        <v>3762</v>
+      </c>
+      <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>567</v>
+      </c>
+      <c r="J24">
+        <v>285</v>
+      </c>
+      <c r="K24">
+        <f>SUM(I24:J24)</f>
+        <v>852</v>
+      </c>
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="10">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="10">
+        <v>2804</v>
+      </c>
+      <c r="G25">
+        <v>4674</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>729</v>
+      </c>
+      <c r="J25">
+        <v>399</v>
+      </c>
+      <c r="K25">
+        <f>SUM(I25:J25)</f>
+        <v>1128</v>
+      </c>
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="10">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="10">
+        <v>2413</v>
+      </c>
+      <c r="G26">
+        <v>4022</v>
+      </c>
+      <c r="H26">
         <v>12</v>
       </c>
-      <c r="E4" s="4">
-        <v>70221</v>
-      </c>
-      <c r="F4">
-        <v>117035</v>
-      </c>
-      <c r="G4">
-        <v>438</v>
-      </c>
-      <c r="H4">
-        <v>1391</v>
-      </c>
-      <c r="I4">
-        <v>267</v>
-      </c>
-      <c r="J4">
-        <f>SUM(H4:I4)</f>
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4">
-        <v>39676</v>
-      </c>
-      <c r="F5">
-        <v>66126</v>
-      </c>
-      <c r="G5">
-        <v>155</v>
-      </c>
-      <c r="H5">
-        <v>1165</v>
-      </c>
-      <c r="I5">
-        <v>428</v>
-      </c>
-      <c r="J5">
-        <f>SUM(H5:I5)</f>
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4">
-        <v>38136</v>
-      </c>
-      <c r="F6">
-        <v>47670</v>
-      </c>
-      <c r="G6">
-        <v>105</v>
-      </c>
-      <c r="H6">
-        <v>655</v>
-      </c>
-      <c r="I6">
-        <v>454</v>
-      </c>
-      <c r="J6">
-        <f>SUM(H6:I6)</f>
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6">
-        <v>32247</v>
-      </c>
-      <c r="F7">
-        <v>53744</v>
-      </c>
-      <c r="G7">
-        <v>132</v>
-      </c>
-      <c r="H7">
-        <v>413</v>
-      </c>
-      <c r="I7">
-        <v>406</v>
-      </c>
-      <c r="J7">
-        <f>SUM(H7:I7)</f>
-        <v>819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10">
-        <v>11919</v>
-      </c>
-      <c r="F8">
-        <v>19866</v>
-      </c>
-      <c r="G8">
-        <v>51</v>
-      </c>
-      <c r="H8">
-        <v>291</v>
-      </c>
-      <c r="I8">
-        <v>388</v>
-      </c>
-      <c r="J8">
-        <f>SUM(H8:I8)</f>
-        <v>679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10">
-        <v>9613</v>
-      </c>
-      <c r="F9">
-        <v>19227</v>
-      </c>
-      <c r="G9">
-        <v>69</v>
-      </c>
-      <c r="H9">
-        <v>280</v>
-      </c>
-      <c r="I9">
-        <v>280</v>
-      </c>
-      <c r="J9">
-        <f>SUM(H9:I9)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="10">
-        <v>8915</v>
-      </c>
-      <c r="F10">
-        <v>14858</v>
-      </c>
-      <c r="G10">
-        <v>36</v>
-      </c>
-      <c r="H10">
-        <v>830</v>
-      </c>
-      <c r="J10">
-        <f>SUM(H10:I10)</f>
-        <v>830</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>7571</v>
-      </c>
-      <c r="F11">
-        <v>12618</v>
-      </c>
-      <c r="G11">
-        <v>38</v>
-      </c>
-      <c r="H11">
-        <v>1479</v>
-      </c>
-      <c r="I11">
-        <v>335</v>
-      </c>
-      <c r="J11">
-        <f>SUM(H11:I11)</f>
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>4738</v>
-      </c>
-      <c r="F12">
-        <v>7896</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>123</v>
-      </c>
-      <c r="I12">
-        <v>448</v>
-      </c>
-      <c r="J12">
-        <f>SUM(H12:I12)</f>
-        <v>571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10">
-        <v>4404</v>
-      </c>
-      <c r="F13">
-        <v>6292</v>
-      </c>
-      <c r="G13">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>1405</v>
-      </c>
-      <c r="I13">
-        <v>484</v>
-      </c>
-      <c r="J13">
-        <f>SUM(H13:I13)</f>
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>4126</v>
-      </c>
-      <c r="F14">
-        <v>5158</v>
-      </c>
-      <c r="G14">
-        <v>15</v>
-      </c>
-      <c r="H14">
-        <v>272</v>
-      </c>
-      <c r="I14">
-        <v>341</v>
-      </c>
-      <c r="J14">
-        <f>SUM(H14:I14)</f>
-        <v>613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="10">
-        <v>3010</v>
-      </c>
-      <c r="F15">
-        <v>3762</v>
-      </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>567</v>
-      </c>
-      <c r="I15">
-        <v>285</v>
-      </c>
-      <c r="J15">
-        <f>SUM(H15:I15)</f>
-        <v>852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="10">
-        <v>2883</v>
-      </c>
-      <c r="F16">
-        <v>4804</v>
-      </c>
-      <c r="G16">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>1211</v>
-      </c>
-      <c r="I16">
-        <v>306</v>
-      </c>
-      <c r="J16">
-        <f>SUM(H16:I16)</f>
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2879</v>
-      </c>
-      <c r="F17">
-        <v>4112</v>
-      </c>
-      <c r="G17">
-        <v>14</v>
-      </c>
-      <c r="H17">
-        <v>541</v>
-      </c>
-      <c r="I17">
-        <v>298</v>
-      </c>
-      <c r="J17">
-        <f>SUM(H17:I17)</f>
-        <v>839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2804</v>
-      </c>
-      <c r="F18">
-        <v>4674</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>729</v>
-      </c>
-      <c r="I18">
-        <v>399</v>
-      </c>
-      <c r="J18">
-        <f>SUM(H18:I18)</f>
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2782</v>
-      </c>
-      <c r="F19">
-        <v>3974</v>
-      </c>
-      <c r="G19">
-        <v>14</v>
-      </c>
-      <c r="H19">
-        <v>84</v>
-      </c>
-      <c r="I19">
-        <v>289</v>
-      </c>
-      <c r="J19">
-        <f>SUM(H19:I19)</f>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="I26">
+        <v>920</v>
+      </c>
+      <c r="J26">
+        <v>325</v>
+      </c>
+      <c r="K26">
+        <f>SUM(I26:J26)</f>
+        <v>1245</v>
+      </c>
+      <c r="N26" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="O26" s="10">
         <v>2413</v>
       </c>
-      <c r="F20">
-        <v>4022</v>
-      </c>
-      <c r="G20">
-        <v>12</v>
-      </c>
-      <c r="H20">
-        <v>920</v>
-      </c>
-      <c r="I20">
-        <v>325</v>
-      </c>
-      <c r="J20">
-        <f>SUM(H20:I20)</f>
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2247</v>
-      </c>
-      <c r="F21">
-        <v>3745</v>
-      </c>
-      <c r="G21">
-        <v>14</v>
-      </c>
-      <c r="H21">
-        <v>1293</v>
-      </c>
-      <c r="I21">
-        <v>274</v>
-      </c>
-      <c r="J21">
-        <f>SUM(H21:I21)</f>
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1830</v>
-      </c>
-      <c r="F22">
-        <v>3051</v>
-      </c>
-      <c r="G22">
-        <v>15</v>
-      </c>
-      <c r="H22">
-        <v>411</v>
-      </c>
-      <c r="I22">
-        <v>208</v>
-      </c>
-      <c r="J22">
-        <f>SUM(H22:I22)</f>
-        <v>619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1705</v>
-      </c>
-      <c r="F23">
-        <v>2436</v>
-      </c>
-      <c r="G23">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <v>1063</v>
-      </c>
-      <c r="I23">
-        <v>116</v>
-      </c>
-      <c r="J23">
-        <f>SUM(H23:I23)</f>
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1561</v>
-      </c>
-      <c r="F24">
-        <v>2602</v>
-      </c>
-      <c r="G24">
-        <v>57</v>
-      </c>
-      <c r="I24">
-        <v>46</v>
-      </c>
-      <c r="J24">
-        <f>SUM(H24:I24)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1333</v>
-      </c>
-      <c r="F25">
-        <v>2221</v>
-      </c>
-      <c r="G25">
-        <v>16</v>
-      </c>
-      <c r="H25">
-        <v>1140</v>
-      </c>
-      <c r="I25">
-        <v>136</v>
-      </c>
-      <c r="J25">
-        <f>SUM(H25:I25)</f>
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26">
-        <v>19936</v>
-      </c>
-      <c r="G26">
-        <v>51</v>
-      </c>
-      <c r="H26">
-        <v>207</v>
-      </c>
-      <c r="I26">
-        <v>394</v>
-      </c>
-      <c r="J26">
-        <f>SUM(H26:I26)</f>
-        <v>601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J26">
-    <sortCondition descending="1" ref="E2:E26"/>
+  <autoFilter ref="A1:K26" xr:uid="{F4465AD3-C666-4ACD-9831-4BE10F178CE5}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Feb"/>
+        <filter val="Jan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
+    <sortCondition descending="1" ref="H6:H26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2DCA1B-8915-43F9-8056-57CF4A6939BE}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="8.88671875" customWidth="1"/>
+    <col min="7" max="11" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>99754</v>
+      </c>
+      <c r="G2">
+        <v>142506</v>
+      </c>
+      <c r="H2">
+        <v>305</v>
+      </c>
+      <c r="I2">
+        <v>302</v>
+      </c>
+      <c r="J2">
+        <v>468</v>
+      </c>
+      <c r="K2">
+        <f>SUM(I2:J2)</f>
+        <v>770</v>
+      </c>
+      <c r="N2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4">
+        <v>87891</v>
+      </c>
+      <c r="H3">
+        <v>234</v>
+      </c>
+      <c r="I3">
+        <v>1322</v>
+      </c>
+      <c r="J3">
+        <v>469</v>
+      </c>
+      <c r="K3">
+        <f>SUM(I3:J3)</f>
+        <v>1791</v>
+      </c>
+      <c r="N3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>70221</v>
+      </c>
+      <c r="G4">
+        <v>117035</v>
+      </c>
+      <c r="H4">
+        <v>438</v>
+      </c>
+      <c r="I4">
+        <v>1391</v>
+      </c>
+      <c r="J4">
+        <v>267</v>
+      </c>
+      <c r="K4">
+        <f>SUM(I4:J4)</f>
+        <v>1658</v>
+      </c>
+      <c r="N4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
+        <v>39676</v>
+      </c>
+      <c r="G5">
+        <v>66126</v>
+      </c>
+      <c r="H5">
+        <v>155</v>
+      </c>
+      <c r="I5">
+        <v>1165</v>
+      </c>
+      <c r="J5">
+        <v>428</v>
+      </c>
+      <c r="K5">
+        <f>SUM(I5:J5)</f>
+        <v>1593</v>
+      </c>
+      <c r="N5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>38136</v>
+      </c>
+      <c r="G6">
+        <v>47670</v>
+      </c>
+      <c r="H6">
+        <v>105</v>
+      </c>
+      <c r="I6">
+        <v>655</v>
+      </c>
+      <c r="J6">
+        <v>454</v>
+      </c>
+      <c r="K6">
+        <f>SUM(I6:J6)</f>
+        <v>1109</v>
+      </c>
+      <c r="N6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>32247</v>
+      </c>
+      <c r="G7">
+        <v>53744</v>
+      </c>
+      <c r="H7">
+        <v>132</v>
+      </c>
+      <c r="I7">
+        <v>413</v>
+      </c>
+      <c r="J7">
+        <v>406</v>
+      </c>
+      <c r="K7">
+        <f>SUM(I7:J7)</f>
+        <v>819</v>
+      </c>
+      <c r="N7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="10">
+        <v>11919</v>
+      </c>
+      <c r="G8">
+        <v>19866</v>
+      </c>
+      <c r="H8">
+        <v>51</v>
+      </c>
+      <c r="I8">
+        <v>291</v>
+      </c>
+      <c r="J8">
+        <v>388</v>
+      </c>
+      <c r="K8">
+        <f>SUM(I8:J8)</f>
+        <v>679</v>
+      </c>
+      <c r="N8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="10">
+        <v>9613</v>
+      </c>
+      <c r="G9">
+        <v>19227</v>
+      </c>
+      <c r="H9">
+        <v>69</v>
+      </c>
+      <c r="I9">
+        <v>280</v>
+      </c>
+      <c r="J9">
+        <v>280</v>
+      </c>
+      <c r="K9">
+        <f>SUM(I9:J9)</f>
+        <v>560</v>
+      </c>
+      <c r="N9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10">
+        <v>8915</v>
+      </c>
+      <c r="G10">
+        <v>14858</v>
+      </c>
+      <c r="H10">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>830</v>
+      </c>
+      <c r="K10">
+        <f>SUM(I10:J10)</f>
+        <v>830</v>
+      </c>
+      <c r="N10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10">
+        <v>7571</v>
+      </c>
+      <c r="G11">
+        <v>12618</v>
+      </c>
+      <c r="H11">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>1479</v>
+      </c>
+      <c r="J11">
+        <v>335</v>
+      </c>
+      <c r="K11">
+        <f>SUM(I11:J11)</f>
+        <v>1814</v>
+      </c>
+      <c r="N11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="10">
+        <v>4738</v>
+      </c>
+      <c r="G12">
+        <v>7896</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>123</v>
+      </c>
+      <c r="J12">
+        <v>448</v>
+      </c>
+      <c r="K12">
+        <f>SUM(I12:J12)</f>
+        <v>571</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10">
+        <v>4404</v>
+      </c>
+      <c r="G13">
+        <v>6292</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>1405</v>
+      </c>
+      <c r="J13">
+        <v>484</v>
+      </c>
+      <c r="K13">
+        <f>SUM(I13:J13)</f>
+        <v>1889</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4126</v>
+      </c>
+      <c r="G14">
+        <v>5158</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>272</v>
+      </c>
+      <c r="J14">
+        <v>341</v>
+      </c>
+      <c r="K14">
+        <f>SUM(I14:J14)</f>
+        <v>613</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3010</v>
+      </c>
+      <c r="G15">
+        <v>3762</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>567</v>
+      </c>
+      <c r="J15">
+        <v>285</v>
+      </c>
+      <c r="K15">
+        <f>SUM(I15:J15)</f>
+        <v>852</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2883</v>
+      </c>
+      <c r="G16">
+        <v>4804</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>1211</v>
+      </c>
+      <c r="J16">
+        <v>306</v>
+      </c>
+      <c r="K16">
+        <f>SUM(I16:J16)</f>
+        <v>1517</v>
+      </c>
+      <c r="N16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2879</v>
+      </c>
+      <c r="G17">
+        <v>4112</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>541</v>
+      </c>
+      <c r="J17">
+        <v>298</v>
+      </c>
+      <c r="K17">
+        <f>SUM(I17:J17)</f>
+        <v>839</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2804</v>
+      </c>
+      <c r="G18">
+        <v>4674</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>729</v>
+      </c>
+      <c r="J18">
+        <v>399</v>
+      </c>
+      <c r="K18">
+        <f>SUM(I18:J18)</f>
+        <v>1128</v>
+      </c>
+      <c r="N18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2782</v>
+      </c>
+      <c r="G19">
+        <v>3974</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>84</v>
+      </c>
+      <c r="J19">
+        <v>289</v>
+      </c>
+      <c r="K19">
+        <f>SUM(I19:J19)</f>
+        <v>373</v>
+      </c>
+      <c r="N19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="10">
+        <v>2413</v>
+      </c>
+      <c r="G20">
+        <v>4022</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>920</v>
+      </c>
+      <c r="J20">
+        <v>325</v>
+      </c>
+      <c r="K20">
+        <f>SUM(I20:J20)</f>
+        <v>1245</v>
+      </c>
+      <c r="N20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>2247</v>
+      </c>
+      <c r="G21">
+        <v>3745</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>1293</v>
+      </c>
+      <c r="J21">
+        <v>274</v>
+      </c>
+      <c r="K21">
+        <f>SUM(I21:J21)</f>
+        <v>1567</v>
+      </c>
+      <c r="N21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1830</v>
+      </c>
+      <c r="G22">
+        <v>3051</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>411</v>
+      </c>
+      <c r="J22">
+        <v>208</v>
+      </c>
+      <c r="K22">
+        <f>SUM(I22:J22)</f>
+        <v>619</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1705</v>
+      </c>
+      <c r="G23">
+        <v>2436</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>1063</v>
+      </c>
+      <c r="J23">
+        <v>116</v>
+      </c>
+      <c r="K23">
+        <f>SUM(I23:J23)</f>
+        <v>1179</v>
+      </c>
+      <c r="N23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1561</v>
+      </c>
+      <c r="G24">
+        <v>2602</v>
+      </c>
+      <c r="H24">
+        <v>57</v>
+      </c>
+      <c r="J24">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <f>SUM(I24:J24)</f>
+        <v>46</v>
+      </c>
+      <c r="N24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1333</v>
+      </c>
+      <c r="G25">
+        <v>2221</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>1140</v>
+      </c>
+      <c r="J25">
+        <v>136</v>
+      </c>
+      <c r="K25">
+        <f>SUM(I25:J25)</f>
+        <v>1276</v>
+      </c>
+      <c r="N25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>19936</v>
+      </c>
+      <c r="H26">
+        <v>51</v>
+      </c>
+      <c r="I26">
+        <v>207</v>
+      </c>
+      <c r="J26">
+        <v>394</v>
+      </c>
+      <c r="K26">
+        <f>SUM(I26:J26)</f>
+        <v>601</v>
+      </c>
+      <c r="N26">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
+    <sortCondition descending="1" ref="F2:F26"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
@@ -2594,7 +5545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:G11"/>
   <sheetViews>
